--- a/scripts/models/putri/Putri_New_Sub_Journey_Infloww.xlsx
+++ b/scripts/models/putri/Putri_New_Sub_Journey_Infloww.xlsx
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>holy shit 🥵 that was... wow</t>
+          <t>holy fuck 🥵 that was... wow</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
